--- a/Data/Regression/German_Institutes_Forecast_First_Quarter.xlsx
+++ b/Data/Regression/German_Institutes_Forecast_First_Quarter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\PhD\Github\Single-Author\Data\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E83BC94-2994-46D7-9051-00DE0034B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BECD4D7-231B-49A9-98E7-27C9F1F712EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>1.4</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U22" si="0">((12-1+1)/12)*S2 + ((1-1)/12)*T2</f>
+        <f>((12-1+1)/12)*S2 + ((1-1)/12)*T2</f>
         <v>1.3</v>
       </c>
     </row>
@@ -769,15 +769,15 @@
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S23" si="1">VALUE(SUBSTITUTE(D3,".",","))</f>
+        <f t="shared" ref="S3:S23" si="0">VALUE(SUBSTITUTE(D3,".",","))</f>
         <v>1.3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T23" si="2">VALUE(SUBSTITUTE(M3,".",","))</f>
+        <f t="shared" ref="T3:T23" si="1">VALUE(SUBSTITUTE(M3,".",","))</f>
         <v>1.4</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U2:U3" si="2">((12-1+1)/12)*S3 + ((1-1)/12)*T3</f>
         <v>1.3</v>
       </c>
     </row>
@@ -810,15 +810,15 @@
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="S4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="U4" s="4" t="e">
-        <f>((12-1+1)/12)*S4 + ((1-1)/12)*T4</f>
+        <f t="shared" ref="U4:U21" si="3">((12-1+1)/12)*S4 + ((1-1)/12)*T4</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -878,15 +878,15 @@
         <v>-0.7</v>
       </c>
       <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U5" s="4">
-        <f>((12-1+1)/12)*S5 + ((1-1)/12)*T5</f>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
     </row>
@@ -946,15 +946,15 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="U6" s="4">
-        <f>((12-1+1)/12)*S6 + ((1-1)/12)*T6</f>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
     </row>
@@ -1014,15 +1014,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U7" s="4">
-        <f>((12-1+1)/12)*S7 + ((1-1)/12)*T7</f>
+        <f t="shared" si="3"/>
         <v>2.9</v>
       </c>
     </row>
@@ -1082,15 +1082,15 @@
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="U8" s="4">
-        <f>((12-1+1)/12)*S8 + ((1-1)/12)*T8</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1150,15 +1150,15 @@
         <v>-0.8</v>
       </c>
       <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="U9" s="4">
-        <f>((12-1+1)/12)*S9 + ((1-1)/12)*T9</f>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
     </row>
@@ -1218,15 +1218,15 @@
         <v>0.8</v>
       </c>
       <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="U10" s="4">
-        <f>((12-1+1)/12)*S10 + ((1-1)/12)*T10</f>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
     </row>
@@ -1286,15 +1286,15 @@
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="U11" s="4">
-        <f>((12-1+1)/12)*S11 + ((1-1)/12)*T11</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1354,15 +1354,15 @@
         <v>-0.60000000000000009</v>
       </c>
       <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="U12" s="4">
-        <f>((12-1+1)/12)*S12 + ((1-1)/12)*T12</f>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
     </row>
@@ -1422,15 +1422,15 @@
         <v>-0.3</v>
       </c>
       <c r="S13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="U13" s="4">
-        <f>((12-1+1)/12)*S13 + ((1-1)/12)*T13</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -1490,15 +1490,15 @@
         <v>0.40000000000000008</v>
       </c>
       <c r="S14">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
       <c r="U14" s="4">
-        <f>((12-1+1)/12)*S14 + ((1-1)/12)*T14</f>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
@@ -1558,15 +1558,15 @@
         <v>0.5</v>
       </c>
       <c r="S15">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="U15" s="4">
-        <f>((12-1+1)/12)*S15 + ((1-1)/12)*T15</f>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
     </row>
@@ -1626,15 +1626,15 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="U16" s="4">
-        <f>((12-1+1)/12)*S16 + ((1-1)/12)*T16</f>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1694,15 +1694,15 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="U17" s="4">
-        <f>((12-1+1)/12)*S17 + ((1-1)/12)*T17</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1762,15 +1762,15 @@
         <v>0.3</v>
       </c>
       <c r="S18">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="U18" s="4">
-        <f>((12-1+1)/12)*S18 + ((1-1)/12)*T18</f>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
     </row>
@@ -1830,15 +1830,15 @@
         <v>-0.1000000000000001</v>
       </c>
       <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="2"/>
-        <v>1.7</v>
-      </c>
       <c r="U19" s="4">
-        <f>((12-1+1)/12)*S19 + ((1-1)/12)*T19</f>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
     </row>
@@ -1898,15 +1898,15 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="S20">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="U20" s="4">
-        <f>((12-1+1)/12)*S20 + ((1-1)/12)*T20</f>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
     </row>
@@ -1966,15 +1966,15 @@
         <v>0.5</v>
       </c>
       <c r="S21">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U21" s="4">
-        <f>((12-1+1)/12)*S21 + ((1-1)/12)*T21</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
@@ -2034,11 +2034,11 @@
         <v>-1</v>
       </c>
       <c r="S22">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="U22" s="4">
@@ -2099,11 +2099,11 @@
         <v>-4.1000000000000014</v>
       </c>
       <c r="S23">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U23" s="4">
@@ -2171,11 +2171,11 @@
         <v>1.4</v>
       </c>
       <c r="T25">
-        <f>VALUE(SUBSTITUTE(M25,".",","))</f>
+        <f t="shared" ref="T25:T43" si="4">VALUE(SUBSTITUTE(M25,".",","))</f>
         <v>1.4</v>
       </c>
       <c r="U25" s="4">
-        <f>((12-3+1)/12)*S25 + ((3-1)/12)*T25</f>
+        <f t="shared" ref="U25:U43" si="5">((12-3+1)/12)*S25 + ((3-1)/12)*T25</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -2235,15 +2235,15 @@
         <v>0.20000000000000021</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S43" si="3">VALUE(SUBSTITUTE(D26,".",","))</f>
+        <f t="shared" ref="S26:S43" si="6">VALUE(SUBSTITUTE(D26,".",","))</f>
         <v>1.5</v>
       </c>
       <c r="T26">
-        <f>VALUE(SUBSTITUTE(M26,".",","))</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="U26" s="4">
-        <f>((12-3+1)/12)*S26 + ((3-1)/12)*T26</f>
+        <f t="shared" si="5"/>
         <v>1.6166666666666667</v>
       </c>
     </row>
@@ -2303,15 +2303,15 @@
         <v>-0.2</v>
       </c>
       <c r="S27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="T27">
-        <f>VALUE(SUBSTITUTE(M27,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="U27" s="4">
-        <f>((12-3+1)/12)*S27 + ((3-1)/12)*T27</f>
+        <f t="shared" si="5"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -2371,15 +2371,15 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="T28">
-        <f>VALUE(SUBSTITUTE(M28,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
       <c r="U28" s="4">
-        <f>((12-3+1)/12)*S28 + ((3-1)/12)*T28</f>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
     </row>
@@ -2439,15 +2439,15 @@
         <v>-0.79999999999999982</v>
       </c>
       <c r="S29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
       <c r="T29">
-        <f>VALUE(SUBSTITUTE(M29,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="U29" s="4">
-        <f>((12-3+1)/12)*S29 + ((3-1)/12)*T29</f>
+        <f t="shared" si="5"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -2507,15 +2507,15 @@
         <v>-0.20000000000000021</v>
       </c>
       <c r="S30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T30">
-        <f>VALUE(SUBSTITUTE(M30,".",","))</f>
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
       <c r="U30" s="4">
-        <f>((12-3+1)/12)*S30 + ((3-1)/12)*T30</f>
+        <f t="shared" si="5"/>
         <v>2.0666666666666669</v>
       </c>
     </row>
@@ -2575,15 +2575,15 @@
         <v>0.4</v>
       </c>
       <c r="S31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="T31">
-        <f>VALUE(SUBSTITUTE(M31,".",","))</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="U31" s="4">
-        <f>((12-3+1)/12)*S31 + ((3-1)/12)*T31</f>
+        <f t="shared" si="5"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -2643,15 +2643,15 @@
         <v>-0.50000000000000011</v>
       </c>
       <c r="S32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="T32">
-        <f>VALUE(SUBSTITUTE(M32,".",","))</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="U32" s="4">
-        <f>((12-3+1)/12)*S32 + ((3-1)/12)*T32</f>
+        <f t="shared" si="5"/>
         <v>0.76666666666666672</v>
       </c>
     </row>
@@ -2711,15 +2711,15 @@
         <v>0.1</v>
       </c>
       <c r="S33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T33">
-        <f>VALUE(SUBSTITUTE(M33,".",","))</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="U33" s="4">
-        <f>((12-3+1)/12)*S33 + ((3-1)/12)*T33</f>
+        <f t="shared" si="5"/>
         <v>2.0333333333333332</v>
       </c>
     </row>
@@ -2779,15 +2779,15 @@
         <v>0.5</v>
       </c>
       <c r="S34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="T34">
-        <f>VALUE(SUBSTITUTE(M34,".",","))</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="U34" s="4">
-        <f>((12-3+1)/12)*S34 + ((3-1)/12)*T34</f>
+        <f t="shared" si="5"/>
         <v>2.333333333333333</v>
       </c>
     </row>
@@ -2847,15 +2847,15 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="S35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.6</v>
       </c>
       <c r="T35">
-        <f>VALUE(SUBSTITUTE(M35,".",","))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U35" s="4">
-        <f>((12-3+1)/12)*S35 + ((3-1)/12)*T35</f>
+        <f t="shared" si="5"/>
         <v>2.5000000000000004</v>
       </c>
     </row>
@@ -2915,15 +2915,15 @@
         <v>0.5</v>
       </c>
       <c r="S36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="T36">
-        <f>VALUE(SUBSTITUTE(M36,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="U36" s="4">
-        <f>((12-3+1)/12)*S36 + ((3-1)/12)*T36</f>
+        <f t="shared" si="5"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -2983,15 +2983,15 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="T37">
-        <f>VALUE(SUBSTITUTE(M37,".",","))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U37" s="4">
-        <f>((12-3+1)/12)*S37 + ((3-1)/12)*T37</f>
+        <f t="shared" si="5"/>
         <v>1.5833333333333333</v>
       </c>
     </row>
@@ -3051,15 +3051,15 @@
         <v>0.3</v>
       </c>
       <c r="S38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="T38">
-        <f>VALUE(SUBSTITUTE(M38,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
       <c r="U38" s="4">
-        <f>((12-3+1)/12)*S38 + ((3-1)/12)*T38</f>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
         <v>-0.1000000000000001</v>
       </c>
       <c r="S39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T39">
-        <f>VALUE(SUBSTITUTE(M39,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
       <c r="U39" s="4">
-        <f>((12-3+1)/12)*S39 + ((3-1)/12)*T39</f>
+        <f t="shared" si="5"/>
         <v>1.9500000000000002</v>
       </c>
     </row>
@@ -3187,15 +3187,15 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="S40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="T40">
-        <f>VALUE(SUBSTITUTE(M40,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="U40" s="4">
-        <f>((12-3+1)/12)*S40 + ((3-1)/12)*T40</f>
+        <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
     </row>
@@ -3255,15 +3255,15 @@
         <v>0.8</v>
       </c>
       <c r="S41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
       <c r="T41">
-        <f>VALUE(SUBSTITUTE(M41,".",","))</f>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="U41" s="4">
-        <f>((12-3+1)/12)*S41 + ((3-1)/12)*T41</f>
+        <f t="shared" si="5"/>
         <v>1.9666666666666668</v>
       </c>
     </row>
@@ -3323,15 +3323,15 @@
         <v>-0.80000000000000027</v>
       </c>
       <c r="S42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="T42">
-        <f>VALUE(SUBSTITUTE(M42,".",","))</f>
+        <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="U42" s="4">
-        <f>((12-3+1)/12)*S42 + ((3-1)/12)*T42</f>
+        <f t="shared" si="5"/>
         <v>1.8833333333333333</v>
       </c>
     </row>
@@ -3388,15 +3388,15 @@
         <v>-2.100000000000001</v>
       </c>
       <c r="S43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4</v>
       </c>
       <c r="T43">
-        <f>VALUE(SUBSTITUTE(M43,".",","))</f>
+        <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
       <c r="U43" s="4">
-        <f>((12-3+1)/12)*S43 + ((3-1)/12)*T43</f>
+        <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
     </row>
@@ -3460,11 +3460,11 @@
         <v>1.7</v>
       </c>
       <c r="T45">
-        <f>VALUE(SUBSTITUTE(M45,".",","))</f>
+        <f t="shared" ref="T45:T62" si="7">VALUE(SUBSTITUTE(M45,".",","))</f>
         <v>1.4</v>
       </c>
       <c r="U45" s="4">
-        <f>((12-3+1)/12)*S45 + ((3-1)/12)*T45</f>
+        <f t="shared" ref="U45:U61" si="8">((12-3+1)/12)*S45 + ((3-1)/12)*T45</f>
         <v>1.6500000000000001</v>
       </c>
     </row>
@@ -3524,15 +3524,15 @@
         <v>0.29999999999999982</v>
       </c>
       <c r="S46">
-        <f t="shared" ref="S46:S62" si="4">VALUE(SUBSTITUTE(D46,".",","))</f>
+        <f t="shared" ref="S46:S62" si="9">VALUE(SUBSTITUTE(D46,".",","))</f>
         <v>1.4</v>
       </c>
       <c r="T46">
-        <f>VALUE(SUBSTITUTE(M46,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="U46" s="4">
-        <f>((12-3+1)/12)*S46 + ((3-1)/12)*T46</f>
+        <f t="shared" si="8"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -3592,15 +3592,15 @@
         <v>-0.39999999999999991</v>
       </c>
       <c r="S47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="T47">
-        <f>VALUE(SUBSTITUTE(M47,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
       <c r="U47" s="4">
-        <f>((12-3+1)/12)*S47 + ((3-1)/12)*T47</f>
+        <f t="shared" si="8"/>
         <v>1.4666666666666668</v>
       </c>
     </row>
@@ -3660,15 +3660,15 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="T48">
-        <f>VALUE(SUBSTITUTE(M48,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="U48" s="4">
-        <f>((12-3+1)/12)*S48 + ((3-1)/12)*T48</f>
+        <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
     </row>
@@ -3728,15 +3728,15 @@
         <v>-0.20000000000000021</v>
       </c>
       <c r="S49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="T49">
-        <f>VALUE(SUBSTITUTE(M49,".",","))</f>
+        <f t="shared" si="7"/>
         <v>2.4</v>
       </c>
       <c r="U49" s="4">
-        <f>((12-3+1)/12)*S49 + ((3-1)/12)*T49</f>
+        <f t="shared" si="8"/>
         <v>1.9</v>
       </c>
     </row>
@@ -3796,15 +3796,15 @@
         <v>0.1</v>
       </c>
       <c r="S50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="T50">
-        <f>VALUE(SUBSTITUTE(M50,".",","))</f>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="U50" s="4">
-        <f>((12-3+1)/12)*S50 + ((3-1)/12)*T50</f>
+        <f t="shared" si="8"/>
         <v>0.48333333333333334</v>
       </c>
     </row>
@@ -3864,15 +3864,15 @@
         <v>0.19999999999999971</v>
       </c>
       <c r="S51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="T51">
-        <f>VALUE(SUBSTITUTE(M51,".",","))</f>
+        <f t="shared" si="7"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="U51" s="4">
-        <f>((12-3+1)/12)*S51 + ((3-1)/12)*T51</f>
+        <f t="shared" si="8"/>
         <v>1.8833333333333333</v>
       </c>
     </row>
@@ -3932,15 +3932,15 @@
         <v>0.29999999999999982</v>
       </c>
       <c r="S52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="T52">
-        <f>VALUE(SUBSTITUTE(M52,".",","))</f>
+        <f t="shared" si="7"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="U52" s="4">
-        <f>((12-3+1)/12)*S52 + ((3-1)/12)*T52</f>
+        <f t="shared" si="8"/>
         <v>2.4666666666666668</v>
       </c>
     </row>
@@ -4000,15 +4000,15 @@
         <v>0.3</v>
       </c>
       <c r="S53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.1</v>
       </c>
       <c r="T53">
-        <f>VALUE(SUBSTITUTE(M53,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.7</v>
       </c>
       <c r="U53" s="4">
-        <f>((12-3+1)/12)*S53 + ((3-1)/12)*T53</f>
+        <f t="shared" si="8"/>
         <v>2.0333333333333337</v>
       </c>
     </row>
@@ -4068,15 +4068,15 @@
         <v>0.3</v>
       </c>
       <c r="S54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7</v>
       </c>
       <c r="T54">
-        <f>VALUE(SUBSTITUTE(M54,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
       <c r="U54" s="4">
-        <f>((12-3+1)/12)*S54 + ((3-1)/12)*T54</f>
+        <f t="shared" si="8"/>
         <v>1.6333333333333333</v>
       </c>
     </row>
@@ -4136,15 +4136,15 @@
         <v>-0.2</v>
       </c>
       <c r="S55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="T55">
-        <f>VALUE(SUBSTITUTE(M55,".",","))</f>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="U55" s="4">
-        <f>((12-3+1)/12)*S55 + ((3-1)/12)*T55</f>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4204,15 +4204,15 @@
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="S56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="T56">
-        <f>VALUE(SUBSTITUTE(M56,".",","))</f>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="U56" s="4">
-        <f>((12-3+1)/12)*S56 + ((3-1)/12)*T56</f>
+        <f t="shared" si="8"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -4272,15 +4272,15 @@
         <v>0.3</v>
       </c>
       <c r="S57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7</v>
       </c>
       <c r="T57">
-        <f>VALUE(SUBSTITUTE(M57,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
       <c r="U57" s="4">
-        <f>((12-3+1)/12)*S57 + ((3-1)/12)*T57</f>
+        <f t="shared" si="8"/>
         <v>1.7166666666666668</v>
       </c>
     </row>
@@ -4340,15 +4340,15 @@
         <v>-0.3</v>
       </c>
       <c r="S58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7</v>
       </c>
       <c r="T58">
-        <f>VALUE(SUBSTITUTE(M58,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="U58" s="4">
-        <f>((12-3+1)/12)*S58 + ((3-1)/12)*T58</f>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -4408,15 +4408,15 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="T59">
-        <f>VALUE(SUBSTITUTE(M59,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="U59" s="4">
-        <f>((12-3+1)/12)*S59 + ((3-1)/12)*T59</f>
+        <f t="shared" si="8"/>
         <v>1.4833333333333334</v>
       </c>
     </row>
@@ -4476,15 +4476,15 @@
         <v>0.7</v>
       </c>
       <c r="S60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="T60">
-        <f>VALUE(SUBSTITUTE(M60,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="U60" s="4">
-        <f>((12-3+1)/12)*S60 + ((3-1)/12)*T60</f>
+        <f t="shared" si="8"/>
         <v>1.3666666666666667</v>
       </c>
     </row>
@@ -4544,15 +4544,15 @@
         <v>-1.2</v>
       </c>
       <c r="S61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="T61">
-        <f>VALUE(SUBSTITUTE(M61,".",","))</f>
+        <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
       <c r="U61" s="4">
-        <f>((12-3+1)/12)*S61 + ((3-1)/12)*T61</f>
+        <f t="shared" si="8"/>
         <v>1.6500000000000001</v>
       </c>
     </row>
@@ -4609,11 +4609,11 @@
         <v>-3.100000000000001</v>
       </c>
       <c r="S62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
       <c r="T62">
-        <f>VALUE(SUBSTITUTE(M62,".",","))</f>
+        <f t="shared" si="7"/>
         <v>4.8</v>
       </c>
       <c r="U62" s="4">
@@ -4677,11 +4677,11 @@
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="S64">
-        <f t="shared" ref="S3:S68" si="5">VALUE(SUBSTITUTE(D64,".",","))</f>
+        <f t="shared" ref="S64:S68" si="10">VALUE(SUBSTITUTE(D64,".",","))</f>
         <v>1.7</v>
       </c>
       <c r="T64">
-        <f t="shared" ref="T3:T68" si="6">VALUE(SUBSTITUTE(M64,".",","))</f>
+        <f t="shared" ref="T64:T68" si="11">VALUE(SUBSTITUTE(M64,".",","))</f>
         <v>1.3</v>
       </c>
       <c r="U64" s="4">
@@ -4745,15 +4745,15 @@
         <v>-0.2</v>
       </c>
       <c r="S65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="T65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" ref="U63:U67" si="7">((12-2+1)/12)*S65 + ((2-1)/12)*T65</f>
+        <f t="shared" ref="U65:U67" si="12">((12-2+1)/12)*S65 + ((2-1)/12)*T65</f>
         <v>1.5249999999999999</v>
       </c>
     </row>
@@ -4813,15 +4813,15 @@
         <v>0.3</v>
       </c>
       <c r="S66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
       <c r="T66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.7833333333333332</v>
       </c>
     </row>
@@ -4881,15 +4881,15 @@
         <v>0.5</v>
       </c>
       <c r="S67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="T67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
     </row>
@@ -4949,11 +4949,11 @@
         <v>-0.39999999999999991</v>
       </c>
       <c r="S68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="T68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.3</v>
       </c>
       <c r="U68" s="4">
@@ -5017,15 +5017,15 @@
         <v>-0.1000000000000001</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S86" si="8">VALUE(SUBSTITUTE(D69,".",","))</f>
+        <f t="shared" ref="S69:S86" si="13">VALUE(SUBSTITUTE(D69,".",","))</f>
         <v>1.4</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T86" si="9">VALUE(SUBSTITUTE(M69,".",","))</f>
+        <f t="shared" ref="T69:T86" si="14">VALUE(SUBSTITUTE(M69,".",","))</f>
         <v>1.4</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" ref="U69:U85" si="10">((12-3+1)/12)*S69 + ((3-1)/12)*T69</f>
+        <f t="shared" ref="U69:U85" si="15">((12-3+1)/12)*S69 + ((3-1)/12)*T69</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -5085,15 +5085,15 @@
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="S70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="T70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.7</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.1999999999999997</v>
       </c>
     </row>
@@ -5153,15 +5153,15 @@
         <v>-0.49999999999999978</v>
       </c>
       <c r="S71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="T71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.8</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.55</v>
       </c>
     </row>
@@ -5221,15 +5221,15 @@
         <v>-0.1000000000000001</v>
       </c>
       <c r="S72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="T72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.0833333333333335</v>
       </c>
     </row>
@@ -5289,11 +5289,11 @@
         <v>0.1</v>
       </c>
       <c r="S73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="T73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="U73" s="4">
@@ -5357,15 +5357,15 @@
         <v>-0.3</v>
       </c>
       <c r="S74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="T74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.05</v>
       </c>
     </row>
@@ -5425,15 +5425,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="S75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
       <c r="T75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.4166666666666665</v>
       </c>
     </row>
@@ -5493,15 +5493,15 @@
         <v>0.20000000000000021</v>
       </c>
       <c r="S76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.9</v>
       </c>
       <c r="T76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.95</v>
       </c>
     </row>
@@ -5561,15 +5561,15 @@
         <v>0.20000000000000021</v>
       </c>
       <c r="S77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="T77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.9333333333333333</v>
       </c>
     </row>
@@ -5629,15 +5629,15 @@
         <v>0.2</v>
       </c>
       <c r="S78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
       <c r="T78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
       <c r="U78" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.5333333333333334</v>
       </c>
     </row>
@@ -5697,15 +5697,15 @@
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="S79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="T79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.3166666666666667</v>
       </c>
     </row>
@@ -5765,11 +5765,11 @@
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="S80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="T80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="U80" s="4">
@@ -5833,15 +5833,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="S81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.7</v>
       </c>
       <c r="T81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.9</v>
       </c>
       <c r="U81" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.7333333333333334</v>
       </c>
     </row>
@@ -5901,15 +5901,15 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.9</v>
       </c>
       <c r="T82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.8</v>
       </c>
       <c r="U82" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8833333333333333</v>
       </c>
     </row>
@@ -5969,15 +5969,15 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
       <c r="T83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.4</v>
       </c>
       <c r="U83" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.5666666666666669</v>
       </c>
     </row>
@@ -6037,15 +6037,15 @@
         <v>0.2</v>
       </c>
       <c r="S84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.3</v>
       </c>
       <c r="T84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -6105,15 +6105,15 @@
         <v>-1.4</v>
       </c>
       <c r="S85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
       <c r="T85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.7</v>
       </c>
       <c r="U85" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.4500000000000002</v>
       </c>
     </row>
@@ -6170,11 +6170,11 @@
         <v>-2.7</v>
       </c>
       <c r="S86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="T86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.2</v>
       </c>
       <c r="U86" s="4">
